--- a/note-template/sheet-new.xlsx
+++ b/note-template/sheet-new.xlsx
@@ -13,17 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">key1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">key2</t>
   </si>
@@ -49,26 +46,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,38 +129,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
